--- a/biology/Médecine/Macrocytose/Macrocytose.xlsx
+++ b/biology/Médecine/Macrocytose/Macrocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La macrocytose est une anomalie induisant des érythrocytes (globules rouges) de grande taille (diamètre supérieur à 9 micromètres se traduisant à la numération sanguine par un volume globulaire moyen supérieur à 98fL). On l'observe lors de certaines anémies ou lors d'un alcoolisme chronique. L'anémie est dite alors « macrocytaire ».
 </t>
@@ -511,16 +523,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine, la macrocytose (macros, grec pour grand) est l'apparition de globules rouges (macrocytes) anormalement gros , qui apparaissent dans la formule sanguine après qu'un échantillon de sang a été prélevé et dont le volume globulaire moyen (VGM) est supérieur à 98 femto litres (fl) . S'il y a une anémie en même temps, on parle d'« anémie macrocytaire »[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, la macrocytose (macros, grec pour grand) est l'apparition de globules rouges (macrocytes) anormalement gros , qui apparaissent dans la formule sanguine après qu'un échantillon de sang a été prélevé et dont le volume globulaire moyen (VGM) est supérieur à 98 femto litres (fl) . S'il y a une anémie en même temps, on parle d'« anémie macrocytaire ». 
 On observe entre autres une macrocytose : 
 lors du traitement de l'anémie par carence (régénérative) ;
 chez les fumeurs ;
 dans la cirrhose du foie ;
-en cas d'alcoolisme, jusqu'à quatre mois après la fin de la consommation d'alcool et avec une carence en vitamine B12 ou en acide folique[1].
-Chez l'animal, les troubles myéloprolifératifs et la leucémie féline peuvent également être responsables de macrocytose. Chez les chiots , la macrocytose est physiologique dans les premiers jours de vie[2]. 
-La macrocytose peut se produire comme un artefact dans des échantillons trop vieux ou endommagés[2].
+en cas d'alcoolisme, jusqu'à quatre mois après la fin de la consommation d'alcool et avec une carence en vitamine B12 ou en acide folique.
+Chez l'animal, les troubles myéloprolifératifs et la leucémie féline peuvent également être responsables de macrocytose. Chez les chiots , la macrocytose est physiologique dans les premiers jours de vie. 
+La macrocytose peut se produire comme un artefact dans des échantillons trop vieux ou endommagés.
 </t>
         </is>
       </c>
